--- a/reports/corpus_dwi-unigram_trigram-fold-3.xlsx
+++ b/reports/corpus_dwi-unigram_trigram-fold-3.xlsx
@@ -577,85 +577,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.9270833333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2</v>
+        <v>0.88</v>
       </c>
       <c r="H2" t="n">
-        <v>0.88</v>
+        <v>0.968</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6789473684210526</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1991150442477876</v>
+        <v>0.6769911504424779</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6964285714285714</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9867424242424242</v>
+        <v>0.9734848484848485</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1014492753623188</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2871287128712871</v>
+        <v>0.6089108910891089</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4545454545454545</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.9933333333333333</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.9052631578947369</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5978260869565217</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1390134529147982</v>
+        <v>0.7040358744394619</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3348837209302326</v>
+        <v>0.641860465116279</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5913793103448276</v>
+        <v>0.8603448275862069</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.4516044588543851</v>
+        <v>0.8189503371188144</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.8465892785967396</v>
+        <v>0.8991807754506507</v>
       </c>
     </row>
     <row r="3">
@@ -668,28 +668,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9508196721311475</v>
+        <v>0.9368421052631579</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.88</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.9946236559139785</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9574468085106383</v>
+        <v>0.9745222929936306</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -698,13 +698,13 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3099345627602618</v>
+        <v>0.5921658986175116</v>
       </c>
       <c r="N3" t="n">
-        <v>0.875</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="O3" t="n">
-        <v>0.90625</v>
+        <v>0.924812030075188</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -713,37 +713,37 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9876543209876543</v>
+        <v>0.9662921348314607</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9649122807017544</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.9631901840490797</v>
       </c>
       <c r="X3" t="n">
-        <v>0.96</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="Y3" t="n">
         <v>1</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.5913793103448276</v>
+        <v>0.8603448275862069</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.8517845820842261</v>
+        <v>0.9087339670044073</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.5913793103448276</v>
+        <v>0.8603448275862069</v>
       </c>
     </row>
     <row r="4">
@@ -753,85 +753,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9847715736040609</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7388535031847132</v>
+        <v>0.9319371727748692</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.88</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9361702127659575</v>
+        <v>0.983739837398374</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8087774294670846</v>
+        <v>0.9840425531914894</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3296703296703297</v>
+        <v>0.7989556135770236</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8210526315789474</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4717066545948393</v>
+        <v>0.7363896848137536</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4360902255639098</v>
+        <v>0.7343283582089553</v>
       </c>
       <c r="P4" t="n">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7755102040816326</v>
+        <v>0.9966555183946488</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5904059040590406</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7382550335570469</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8433734939759037</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6875000000000001</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2412451361867704</v>
+        <v>0.8134715025906736</v>
       </c>
       <c r="X4" t="n">
-        <v>0.496551724137931</v>
+        <v>0.7731092436974789</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7027027027027027</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.5913793103448276</v>
+        <v>0.8603448275862069</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5364538637069786</v>
+        <v>0.8455372131718342</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.5905674930564151</v>
+        <v>0.8587979758768646</v>
       </c>
     </row>
     <row r="5">
@@ -841,79 +841,79 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C5" t="n">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="I5" t="n">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="J5" t="n">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="K5" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L5" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M5" t="n">
-        <v>1681</v>
+        <v>868</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="O5" t="n">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q5" t="n">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="R5" t="n">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="U5" t="n">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="W5" t="n">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="X5" t="n">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.5913793103448276</v>
+        <v>0.8603448275862069</v>
       </c>
       <c r="AA5" t="n">
         <v>2900</v>

--- a/reports/corpus_dwi-unigram_trigram-fold-3.xlsx
+++ b/reports/corpus_dwi-unigram_trigram-fold-3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,50 +521,45 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>RBS</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>RP</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UH</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>UH</t>
+          <t>VBI</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>VBI</t>
+          <t>VBT</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>VBT</t>
+          <t>WP</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>WP</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -625,37 +620,34 @@
         <v>0.9933333333333333</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9052631578947369</v>
+        <v>0.9057591623036649</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.7040358744394619</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7040358744394619</v>
+        <v>0.641860465116279</v>
       </c>
       <c r="X2" t="n">
-        <v>0.641860465116279</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8606896551724138</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8603448275862069</v>
+        <v>0.8545784389243684</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8189503371188144</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.8991807754506507</v>
+        <v>0.8992112198591985</v>
       </c>
     </row>
     <row r="3">
@@ -713,37 +705,34 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9662921348314607</v>
+        <v>0.9719101123595506</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="T3" t="n">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.9631901840490797</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9631901840490797</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="X3" t="n">
-        <v>0.971830985915493</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0.8606896551724138</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.8603448275862069</v>
+        <v>0.9484883993753855</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9087339670044073</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.8603448275862069</v>
+        <v>0.8606896551724138</v>
       </c>
     </row>
     <row r="4">
@@ -801,37 +790,34 @@
         <v>0.9966555183946488</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9347826086956522</v>
+        <v>0.9376693766937669</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="T4" t="n">
-        <v>0.972972972972973</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8717948717948718</v>
+        <v>0.8134715025906736</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8134715025906736</v>
+        <v>0.7731092436974789</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7731092436974789</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.8606896551724138</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.8603448275862069</v>
+        <v>0.8824252123531362</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8455372131718342</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.8587979758768646</v>
+        <v>0.8589751637057141</v>
       </c>
     </row>
     <row r="5">
@@ -892,33 +878,30 @@
         <v>178</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="T5" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U5" t="n">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="W5" t="n">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="X5" t="n">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>22</v>
+        <v>0.8606896551724138</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.8603448275862069</v>
+        <v>2900</v>
       </c>
       <c r="AA5" t="n">
-        <v>2900</v>
-      </c>
-      <c r="AB5" t="n">
         <v>2900</v>
       </c>
     </row>
